--- a/famousbook/static/files/isbn.xlsx
+++ b/famousbook/static/files/isbn.xlsx
@@ -14,160 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
   <si>
-    <r>
-      <t>9781421501246</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFffffff"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
+    <t xml:space="preserve">ISBN
+</t>
   </si>
   <si>
-    <r>
-      <t>9781591168751</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFffffff"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9781421577791</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFffffff"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9781421590158</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFffffff"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9781787731721</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFffffff"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9781421599441</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFffffff"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9781974700394</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFffffff"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9781974704514</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFffffff"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9781421539652</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFffffff"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9781974703654</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFffffff"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9781974703661</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFffffff"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
+    <t/>
   </si>
 </sst>
 </file>
@@ -217,13 +70,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,65 +392,63 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="62.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="62.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+      <c r="A2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+      <c r="A10" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="1"/>
     </row>
   </sheetData>
